--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sunil\Documents\UiPath\REFramework\REFramework_Demo_july\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E5DA42-0915-4546-B1FB-8662CCFD6E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D712C1-9361-4975-85F6-B7BFD23A4ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -120,10 +120,13 @@
     <t>OrchestratorAssetFolder</t>
   </si>
   <si>
-    <t>ProcessCEOQueue</t>
+    <t>ProcessUiQueue</t>
   </si>
   <si>
-    <t>CeoFilePath</t>
+    <t>UiDemoPath</t>
+  </si>
+  <si>
+    <t>UiDemoCred</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -570,7 +573,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1574,7 +1584,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z987"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2685,7 +2697,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2736,12 +2748,11 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
